--- a/pred_ohlcv/54_21/2020-01-16 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 LBA ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>-1844082.103959487</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1851482.103959487</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-1851482.103959487</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1851482.103959487</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1852377.452659487</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1827377.452659487</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1827377.452659487</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1812961.740559487</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2116600.631323259</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2115974.251923259</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2089746.531823259</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2091495.588223259</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2101842.297323259</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2049320.575423259</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1844648.465523259</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1844648.465523259</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1844648.465523259</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1994413.599723259</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2009522.715523259</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-2009522.715523259</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-2008700.580223259</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1989580.903023259</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1987080.903023259</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1953147.332023259</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1953443.960323259</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1953443.960323259</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1953219.114723259</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1936719.114723259</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-2329852.487023259</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-2329852.487023259</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-2329852.487023259</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-2329852.487023259</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-2289690.204723259</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-2289690.204723259</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-2289690.204723259</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1273974.898241325</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1733346.29669083</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1715792.49409083</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1377564.564590829</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 LBA ohlcv.xlsx
@@ -1926,7 +1926,7 @@
         <v>-1844082.103959487</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-1844082.103959487</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-1844082.103959487</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1851482.103959487</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-1851482.103959487</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1852377.452659487</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1827377.452659487</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1827377.452659487</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-1812961.740559487</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-1812961.740559487</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-1807961.740559487</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-2116600.631323259</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-2115974.251923259</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-2089746.531823259</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-2091495.588223259</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-2101842.297323259</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-2049320.575423259</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1844648.465523259</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1844648.465523259</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1844648.465523259</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1994413.599723259</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-2009522.715523259</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-1936719.114723259</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-2353237.924323258</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-2338237.924323258</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-2338237.924323258</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-2307099.487023259</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-2307099.487023259</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-2287190.204723259</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-2285522.400323259</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-2216401.400323259</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-2213901.400323259</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-2176294.273923259</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-2176294.273923259</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-2174561.863123259</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-2134561.863123259</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-1450607.28297234</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-878804.2427723405</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-1016274.032872341</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-910811.1608723406</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-1042441.653072341</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-1273974.898241325</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-1608192.743041325</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-1649614.980441325</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-1648561.980441325</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-1883816.937541325</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-1846559.203541325</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-1848882.203741325</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-1792262.894041324</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-1671591.676041325</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1723717.96729083</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1723717.96729083</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-1860925.39499083</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1733346.29669083</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1715792.49409083</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1377564.564590829</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1377564.564590829</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-2206801.837129261</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-2348365.280329261</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
